--- a/src/output.xlsx
+++ b/src/output.xlsx
@@ -747,7 +747,13 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Share Tents
+Share Tents Real
+Share Tents Small</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -973,21 +979,81 @@
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr"/>
-      <c r="AH4" t="inlineStr"/>
-      <c r="AI4" t="inlineStr"/>
-      <c r="AJ4" t="inlineStr"/>
-      <c r="AK4" t="inlineStr"/>
-      <c r="AL4" t="inlineStr"/>
-      <c r="AM4" t="inlineStr"/>
-      <c r="AN4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>Jasperville Leavenburg Connector Road</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>Jasperville Leavenburg Connector Road</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
       <c r="AO4" t="inlineStr"/>
       <c r="AP4" t="inlineStr"/>
       <c r="AQ4" t="inlineStr"/>
@@ -1075,23 +1141,80 @@
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr"/>
-      <c r="AD5" t="inlineStr"/>
-      <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="inlineStr"/>
-      <c r="AH5" t="inlineStr"/>
-      <c r="AI5" t="inlineStr"/>
-      <c r="AJ5" t="inlineStr"/>
-      <c r="AK5" t="inlineStr"/>
-      <c r="AL5" t="inlineStr"/>
-      <c r="AM5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>Jasperville Leavenburg Connector Road</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>Jasperville Leavenburg Connector Road</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)</t>
+          <t>10 Years Later (MAPS)
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
@@ -1104,7 +1227,8 @@
         <is>
           <t>Seaside
 10 Years Later (MAPS)
-Louisville River Marina</t>
+Louisville River Marina
+Subterranea - Kentucky</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
@@ -1115,7 +1239,8 @@
       <c r="AR5" t="inlineStr">
         <is>
           <t>10 Years Later (MAPS)
-Louisville Riverboat</t>
+Louisville Riverboat
+LouisvilleDocks</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
@@ -1269,28 +1394,86 @@
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr"/>
-      <c r="AD6" t="inlineStr"/>
-      <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="inlineStr"/>
-      <c r="AG6" t="inlineStr"/>
-      <c r="AH6" t="inlineStr"/>
-      <c r="AI6" t="inlineStr"/>
-      <c r="AJ6" t="inlineStr"/>
-      <c r="AK6" t="inlineStr"/>
-      <c r="AL6" t="inlineStr"/>
-      <c r="AM6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>Jasperville Leavenburg Connector Road</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>Jasperville Leavenburg Connector Road</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)</t>
+          <t>10 Years Later (MAPS)
+The Romero</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)</t>
+          <t>10 Years Later (MAPS)
+The Romero</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1357,7 +1540,8 @@
       </c>
       <c r="BA6" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)</t>
+          <t>10 Years Later (MAPS)
+Escape From Knox Project HIDEOUT</t>
         </is>
       </c>
       <c r="BB6" t="inlineStr">
@@ -1502,20 +1686,76 @@
           <t>Jasperville</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr"/>
-      <c r="AB7" t="inlineStr"/>
-      <c r="AC7" t="inlineStr"/>
-      <c r="AD7" t="inlineStr"/>
-      <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="inlineStr"/>
-      <c r="AG7" t="inlineStr"/>
-      <c r="AH7" t="inlineStr"/>
-      <c r="AI7" t="inlineStr"/>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr"/>
-      <c r="AL7" t="inlineStr"/>
-      <c r="AM7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>Jasperville Leavenburg Connector Road</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>Jasperville Leavenburg Connector Road</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
       <c r="AN7" t="inlineStr">
         <is>
           <t>10 Years Later (MAPS)</t>
@@ -1784,58 +2024,84 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville Leavenburg Connector Road</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville Leavenburg Connector Road</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
-        </is>
-      </c>
-      <c r="AJ8" t="inlineStr"/>
-      <c r="AK8" t="inlineStr"/>
-      <c r="AL8" t="inlineStr"/>
-      <c r="AM8" t="inlineStr"/>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t>Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
       <c r="AN8" t="inlineStr">
         <is>
           <t>10 Years Later (MAPS)</t>
@@ -1843,7 +2109,8 @@
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)</t>
+          <t>10 Years Later (MAPS)
+Subterranea - Kentucky</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
@@ -1869,7 +2136,8 @@
       </c>
       <c r="AT8" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)</t>
+          <t>10 Years Later (MAPS)
+Subterranea - Kentucky</t>
         </is>
       </c>
       <c r="AU8" t="inlineStr">
@@ -2126,58 +2394,84 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville Leavenburg Connector Road</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville Leavenburg Connector Road</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
-        </is>
-      </c>
-      <c r="AJ9" t="inlineStr"/>
-      <c r="AK9" t="inlineStr"/>
-      <c r="AL9" t="inlineStr"/>
-      <c r="AM9" t="inlineStr"/>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
       <c r="AN9" t="inlineStr">
         <is>
           <t>10 Years Later (MAPS)</t>
@@ -2195,7 +2489,8 @@
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)</t>
+          <t>10 Years Later (MAPS)
+Subterranea - Kentucky</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
@@ -2455,58 +2750,84 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville Leavenburg Connector Road</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville Leavenburg Connector Road</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
-        </is>
-      </c>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
-      <c r="AL10" t="inlineStr"/>
-      <c r="AM10" t="inlineStr"/>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
       <c r="AN10" t="inlineStr">
         <is>
           <t>10 Years Later (MAPS)</t>
@@ -2521,7 +2842,8 @@
       <c r="AP10" t="inlineStr">
         <is>
           <t>10 Years Later (MAPS)
-SZ_EVAC_Louisville</t>
+SZ_EVAC_Louisville
+Wednesday's Custom Import Tuners</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
@@ -2783,58 +3105,84 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville Leavenburg Connector Road</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville Leavenburg Connector Road</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
-        </is>
-      </c>
-      <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr"/>
-      <c r="AL11" t="inlineStr"/>
-      <c r="AM11" t="inlineStr"/>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
       <c r="AN11" t="inlineStr">
         <is>
           <t>10 Years Later (MAPS)</t>
@@ -3123,59 +3471,78 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville Leavenburg Connector Road</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville Leavenburg Connector Road</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
-        </is>
-      </c>
-      <c r="AJ12" t="inlineStr"/>
-      <c r="AK12" t="inlineStr"/>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>Over the River</t>
+          <t>Jasperville to louisville Wilderness Filler
+Over the River</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
@@ -3245,49 +3612,57 @@
       <c r="AY12" t="inlineStr">
         <is>
           <t>Trimble County Power Station &amp; La Grange
-10 Years Later (MAPS)</t>
+10 Years Later (MAPS)
+Welcome to Shelbyville (WIP)</t>
         </is>
       </c>
       <c r="AZ12" t="inlineStr">
         <is>
           <t>Trimble County Power Station &amp; La Grange
-10 Years Later (MAPS)</t>
+10 Years Later (MAPS)
+Welcome to Shelbyville (WIP)</t>
         </is>
       </c>
       <c r="BA12" t="inlineStr">
         <is>
           <t>Trimble County Power Station &amp; La Grange
-10 Years Later (MAPS)</t>
+10 Years Later (MAPS)
+Welcome to Shelbyville (WIP)</t>
         </is>
       </c>
       <c r="BB12" t="inlineStr">
         <is>
           <t>Trimble County Power Station &amp; La Grange
-10 Years Later (MAPS)</t>
+10 Years Later (MAPS)
+Welcome to Shelbyville (WIP)</t>
         </is>
       </c>
       <c r="BC12" t="inlineStr">
         <is>
           <t>Trimble County Power Station &amp; La Grange
-10 Years Later (MAPS)</t>
+10 Years Later (MAPS)
+Welcome to Shelbyville (WIP)</t>
         </is>
       </c>
       <c r="BD12" t="inlineStr">
         <is>
           <t>Trimble County Power Station &amp; La Grange
-10 Years Later (MAPS)</t>
+10 Years Later (MAPS)
+Welcome to Shelbyville (WIP)</t>
         </is>
       </c>
       <c r="BE12" t="inlineStr">
         <is>
           <t>Trimble County Power Station &amp; La Grange
-10 Years Later (MAPS)</t>
+10 Years Later (MAPS)
+Welcome to Shelbyville (WIP)</t>
         </is>
       </c>
       <c r="BF12" t="inlineStr">
         <is>
           <t>Trimble County Power Station &amp; La Grange
-10 Years Later (MAPS)</t>
+10 Years Later (MAPS)
+Welcome to Shelbyville (WIP)</t>
         </is>
       </c>
       <c r="BG12" t="inlineStr">
@@ -3453,64 +3828,84 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville Leavenburg Connector Road</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville Leavenburg Connector Road</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
-        </is>
-      </c>
-      <c r="AJ13" t="inlineStr"/>
-      <c r="AK13" t="inlineStr"/>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>Over the River</t>
+          <t>Jasperville to louisville Wilderness Filler
+Over the River</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>Over the River</t>
+          <t>Jasperville to louisville Wilderness Filler
+Over the River</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
@@ -3576,49 +3971,57 @@
       <c r="AY13" t="inlineStr">
         <is>
           <t>Trimble County Power Station &amp; La Grange
-10 Years Later (MAPS)</t>
+10 Years Later (MAPS)
+Welcome to Shelbyville (WIP)</t>
         </is>
       </c>
       <c r="AZ13" t="inlineStr">
         <is>
           <t>Trimble County Power Station &amp; La Grange
-10 Years Later (MAPS)</t>
+10 Years Later (MAPS)
+Welcome to Shelbyville (WIP)</t>
         </is>
       </c>
       <c r="BA13" t="inlineStr">
         <is>
           <t>Trimble County Power Station &amp; La Grange
-10 Years Later (MAPS)</t>
+10 Years Later (MAPS)
+Welcome to Shelbyville (WIP)</t>
         </is>
       </c>
       <c r="BB13" t="inlineStr">
         <is>
           <t>Trimble County Power Station &amp; La Grange
-10 Years Later (MAPS)</t>
+10 Years Later (MAPS)
+Welcome to Shelbyville (WIP)</t>
         </is>
       </c>
       <c r="BC13" t="inlineStr">
         <is>
           <t>Trimble County Power Station &amp; La Grange
-10 Years Later (MAPS)</t>
+10 Years Later (MAPS)
+Welcome to Shelbyville (WIP)</t>
         </is>
       </c>
       <c r="BD13" t="inlineStr">
         <is>
           <t>Trimble County Power Station &amp; La Grange
-10 Years Later (MAPS)</t>
+10 Years Later (MAPS)
+Welcome to Shelbyville (WIP)</t>
         </is>
       </c>
       <c r="BE13" t="inlineStr">
         <is>
           <t>Trimble County Power Station &amp; La Grange
-10 Years Later (MAPS)</t>
+10 Years Later (MAPS)
+Welcome to Shelbyville (WIP)</t>
         </is>
       </c>
       <c r="BF13" t="inlineStr">
         <is>
           <t>Trimble County Power Station &amp; La Grange
-10 Years Later (MAPS)</t>
+10 Years Later (MAPS)
+Welcome to Shelbyville (WIP)</t>
         </is>
       </c>
       <c r="BG13" t="inlineStr">
@@ -3784,59 +4187,78 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville Leavenburg Connector Road</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville Leavenburg Connector Road</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
-        </is>
-      </c>
-      <c r="AJ14" t="inlineStr"/>
-      <c r="AK14" t="inlineStr"/>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>Over the River</t>
+          <t>Jasperville to louisville Wilderness Filler
+Over the River</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
@@ -3899,55 +4321,65 @@
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)</t>
+          <t>10 Years Later (MAPS)
+Shelter 49 12
+Shelter 49 12 Clean</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr">
         <is>
           <t>Trimble County Power Station &amp; La Grange
-10 Years Later (MAPS)</t>
+10 Years Later (MAPS)
+Welcome to Shelbyville (WIP)</t>
         </is>
       </c>
       <c r="AZ14" t="inlineStr">
         <is>
           <t>Trimble County Power Station &amp; La Grange
-10 Years Later (MAPS)</t>
+10 Years Later (MAPS)
+Welcome to Shelbyville (WIP)</t>
         </is>
       </c>
       <c r="BA14" t="inlineStr">
         <is>
           <t>Trimble County Power Station &amp; La Grange
-10 Years Later (MAPS)</t>
+10 Years Later (MAPS)
+Welcome to Shelbyville (WIP)</t>
         </is>
       </c>
       <c r="BB14" t="inlineStr">
         <is>
           <t>Trimble County Power Station &amp; La Grange
-10 Years Later (MAPS)</t>
+10 Years Later (MAPS)
+Welcome to Shelbyville (WIP)</t>
         </is>
       </c>
       <c r="BC14" t="inlineStr">
         <is>
           <t>Trimble County Power Station &amp; La Grange
-10 Years Later (MAPS)</t>
+10 Years Later (MAPS)
+Welcome to Shelbyville (WIP)</t>
         </is>
       </c>
       <c r="BD14" t="inlineStr">
         <is>
           <t>Trimble County Power Station &amp; La Grange
-10 Years Later (MAPS)</t>
+10 Years Later (MAPS)
+Welcome to Shelbyville (WIP)</t>
         </is>
       </c>
       <c r="BE14" t="inlineStr">
         <is>
           <t>Trimble County Power Station &amp; La Grange
-10 Years Later (MAPS)</t>
+10 Years Later (MAPS)
+Welcome to Shelbyville (WIP)</t>
         </is>
       </c>
       <c r="BF14" t="inlineStr">
         <is>
           <t>Trimble County Power Station &amp; La Grange
-10 Years Later (MAPS)</t>
+10 Years Later (MAPS)
+Welcome to Shelbyville (WIP)</t>
         </is>
       </c>
       <c r="BG14" t="inlineStr">
@@ -4113,59 +4545,78 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville Leavenburg Connector Road</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville Leavenburg Connector Road</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
-        </is>
-      </c>
-      <c r="AJ15" t="inlineStr"/>
-      <c r="AK15" t="inlineStr"/>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
       <c r="AL15" t="inlineStr">
         <is>
-          <t>Over the River</t>
+          <t>Jasperville to louisville Wilderness Filler
+Over the River</t>
         </is>
       </c>
       <c r="AM15" t="inlineStr">
@@ -4239,49 +4690,59 @@
       <c r="AY15" t="inlineStr">
         <is>
           <t>Trimble County Power Station &amp; La Grange
-10 Years Later (MAPS)</t>
+10 Years Later (MAPS)
+The Sims Zomboid
+Welcome to Shelbyville (WIP)</t>
         </is>
       </c>
       <c r="AZ15" t="inlineStr">
         <is>
           <t>Trimble County Power Station &amp; La Grange
-10 Years Later (MAPS)</t>
+10 Years Later (MAPS)
+The Sims Zomboid
+Welcome to Shelbyville (WIP)</t>
         </is>
       </c>
       <c r="BA15" t="inlineStr">
         <is>
           <t>Trimble County Power Station &amp; La Grange
-10 Years Later (MAPS)</t>
+10 Years Later (MAPS)
+Welcome to Shelbyville (WIP)</t>
         </is>
       </c>
       <c r="BB15" t="inlineStr">
         <is>
           <t>Trimble County Power Station &amp; La Grange
-10 Years Later (MAPS)</t>
+10 Years Later (MAPS)
+Welcome to Shelbyville (WIP)</t>
         </is>
       </c>
       <c r="BC15" t="inlineStr">
         <is>
           <t>Trimble County Power Station &amp; La Grange
-10 Years Later (MAPS)</t>
+10 Years Later (MAPS)
+Welcome to Shelbyville (WIP)</t>
         </is>
       </c>
       <c r="BD15" t="inlineStr">
         <is>
           <t>Trimble County Power Station &amp; La Grange
-10 Years Later (MAPS)</t>
+10 Years Later (MAPS)
+Welcome to Shelbyville (WIP)</t>
         </is>
       </c>
       <c r="BE15" t="inlineStr">
         <is>
           <t>Trimble County Power Station &amp; La Grange
-10 Years Later (MAPS)</t>
+10 Years Later (MAPS)
+Welcome to Shelbyville (WIP)</t>
         </is>
       </c>
       <c r="BF15" t="inlineStr">
         <is>
           <t>Trimble County Power Station &amp; La Grange
-10 Years Later (MAPS)</t>
+10 Years Later (MAPS)
+Welcome to Shelbyville (WIP)</t>
         </is>
       </c>
       <c r="BG15" t="inlineStr">
@@ -4467,61 +4928,78 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AH16" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
-        </is>
-      </c>
-      <c r="AJ16" t="inlineStr"/>
-      <c r="AK16" t="inlineStr"/>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
       <c r="AL16" t="inlineStr">
         <is>
+          <t>Jasperville to louisville Wilderness Filler
+Over the River</t>
+        </is>
+      </c>
+      <c r="AM16" t="inlineStr">
+        <is>
           <t>Over the River</t>
         </is>
       </c>
-      <c r="AM16" t="inlineStr">
+      <c r="AN16" t="inlineStr">
         <is>
           <t>Over the River</t>
         </is>
       </c>
-      <c r="AN16" t="inlineStr">
-        <is>
-          <t>Over the River</t>
-        </is>
-      </c>
       <c r="AO16" t="inlineStr">
         <is>
           <t>10 Years Later (MAPS)
@@ -4577,42 +5055,52 @@
       </c>
       <c r="AY16" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)</t>
+          <t>10 Years Later (MAPS)
+The Sims Zomboid
+Welcome to Shelbyville (WIP)</t>
         </is>
       </c>
       <c r="AZ16" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)</t>
+          <t>10 Years Later (MAPS)
+The Sims Zomboid
+Welcome to Shelbyville (WIP)</t>
         </is>
       </c>
       <c r="BA16" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)</t>
+          <t>10 Years Later (MAPS)
+Welcome to Shelbyville (WIP)</t>
         </is>
       </c>
       <c r="BB16" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)</t>
+          <t>10 Years Later (MAPS)
+Welcome to Shelbyville (WIP)</t>
         </is>
       </c>
       <c r="BC16" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)</t>
+          <t>10 Years Later (MAPS)
+Welcome to Shelbyville (WIP)</t>
         </is>
       </c>
       <c r="BD16" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)</t>
+          <t>10 Years Later (MAPS)
+Welcome to Shelbyville (WIP)</t>
         </is>
       </c>
       <c r="BE16" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)</t>
+          <t>10 Years Later (MAPS)
+Welcome to Shelbyville (WIP)</t>
         </is>
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)</t>
+          <t>10 Years Later (MAPS)
+Welcome to Shelbyville (WIP)</t>
         </is>
       </c>
       <c r="BG16" t="inlineStr">
@@ -4775,60 +5263,78 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
-        </is>
-      </c>
-      <c r="AA17" t="inlineStr">
-        <is>
           <t>Dirkerdam Alpha 0.05
 Leavensburg Coreydon Connector Road</t>
         </is>
       </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>Dirkerdam Alpha 0.05
+Leavensburg Coreydon Connector Road</t>
+        </is>
+      </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
-        </is>
-      </c>
-      <c r="AJ17" t="inlineStr"/>
-      <c r="AK17" t="inlineStr"/>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>Over the River</t>
+          <t>Jasperville to louisville Wilderness Filler
+Over the River</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
@@ -4874,7 +5380,10 @@
       </c>
       <c r="AT17" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)</t>
+          <t>10 Years Later (MAPS)
+Shelter 45 15
+Shelter 45 15
+Shelter 45 15 Clean</t>
         </is>
       </c>
       <c r="AU17" t="inlineStr">
@@ -5097,60 +5606,78 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
-        </is>
-      </c>
-      <c r="AA18" t="inlineStr">
-        <is>
           <t>Dirkerdam Alpha 0.05
 Leavensburg Coreydon Connector Road</t>
         </is>
       </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>Dirkerdam Alpha 0.05
+Leavensburg Coreydon Connector Road</t>
+        </is>
+      </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
-        </is>
-      </c>
-      <c r="AJ18" t="inlineStr"/>
-      <c r="AK18" t="inlineStr"/>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>Over the River</t>
+          <t>Jasperville to louisville Wilderness Filler
+Over the River</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
@@ -5391,7 +5918,8 @@
         <is>
           <t>10 Years Later (MAPS)
 10 Years Later - Riverside Forest
-Leavenburg Riverside Bridge</t>
+Leavenburg Riverside Bridge
+Subterranea - Kentucky</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -5425,7 +5953,8 @@
         <is>
           <t>10 Years Later (MAPS)
 10 Years Later - Riverside Forest
-Dirkerdam Alpha 0.05</t>
+Dirkerdam Alpha 0.05
+Leavensburg Coreydon Connector Road</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -5436,61 +5965,78 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AH19" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>Dirkerdam Alpha 0.05</t>
-        </is>
-      </c>
-      <c r="AJ19" t="inlineStr"/>
-      <c r="AK19" t="inlineStr"/>
+          <t>Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>Jasperville to louisville Wilderness Filler</t>
+        </is>
+      </c>
       <c r="AL19" t="inlineStr">
         <is>
+          <t>Jasperville to louisville Wilderness Filler
+Over the River</t>
+        </is>
+      </c>
+      <c r="AM19" t="inlineStr">
+        <is>
           <t>Over the River</t>
         </is>
       </c>
-      <c r="AM19" t="inlineStr">
+      <c r="AN19" t="inlineStr">
         <is>
           <t>Over the River</t>
         </is>
       </c>
-      <c r="AN19" t="inlineStr">
-        <is>
-          <t>Over the River</t>
-        </is>
-      </c>
       <c r="AO19" t="inlineStr">
         <is>
           <t>10 Years Later (MAPS)
@@ -5534,7 +6080,8 @@
       </c>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)</t>
+          <t>10 Years Later (MAPS)
+Abandoned Survivor Base</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
@@ -5771,77 +6318,89 @@
         <is>
           <t>10 Years Later (MAPS)
 10 Years Later - Riverside Forest
-Dirkerdam Alpha 0.05</t>
-        </is>
-      </c>
-      <c r="AA20" t="inlineStr">
-        <is>
-          <t>10 Years Later (MAPS)
 Dirkerdam Alpha 0.05
 Leavensburg Coreydon Connector Road</t>
         </is>
       </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>10 Years Later (MAPS)
+Dirkerdam Alpha 0.05
+Leavensburg Coreydon Connector Road</t>
+        </is>
+      </c>
       <c r="AB20" t="inlineStr">
         <is>
           <t>10 Years Later (MAPS)
-Dirkerdam Alpha 0.05</t>
+Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
           <t>10 Years Later (MAPS)
-Dirkerdam Alpha 0.05</t>
+Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AD20" t="inlineStr">
         <is>
           <t>10 Years Later (MAPS)
-Dirkerdam Alpha 0.05</t>
+Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AE20" t="inlineStr">
         <is>
           <t>10 Years Later (MAPS)
-Dirkerdam Alpha 0.05</t>
+Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
           <t>10 Years Later (MAPS)
-Dirkerdam Alpha 0.05</t>
+Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AG20" t="inlineStr">
         <is>
           <t>10 Years Later (MAPS)
-Dirkerdam Alpha 0.05</t>
+Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AH20" t="inlineStr">
         <is>
           <t>10 Years Later (MAPS)
-Dirkerdam Alpha 0.05</t>
+Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AI20" t="inlineStr">
         <is>
           <t>10 Years Later (MAPS)
-Dirkerdam Alpha 0.05</t>
+Dirkerdam Alpha 0.05
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)</t>
+          <t>10 Years Later (MAPS)
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)</t>
+          <t>10 Years Later (MAPS)
+Jasperville to louisville Wilderness Filler</t>
         </is>
       </c>
       <c r="AL20" t="inlineStr">
         <is>
           <t>10 Years Later (MAPS)
+Jasperville to louisville Wilderness Filler
 Over the River</t>
         </is>
       </c>
@@ -5890,7 +6449,8 @@
       </c>
       <c r="AU20" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)</t>
+          <t>10 Years Later (MAPS)
+Subterranea - Kentucky</t>
         </is>
       </c>
       <c r="AV20" t="inlineStr">
@@ -6049,12 +6609,14 @@
       <c r="K21" t="inlineStr">
         <is>
           <t>Hilltop Manor
-10 Years Later (MAPS)</t>
+10 Years Later (MAPS)
+Riverside Cordon</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)</t>
+          <t>10 Years Later (MAPS)
+Riverside Cordon</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -6198,7 +6760,8 @@
         <is>
           <t>ç§‘é‡Œå°”ç™»(Coryerdon)
 10 Years Later (MAPS)
-Dirkerdam Alpha 0.05</t>
+Dirkerdam Alpha 0.05
+Taylorsville - Bridge to Dirkerdam</t>
         </is>
       </c>
       <c r="AH21" t="inlineStr">
@@ -6258,7 +6821,8 @@
       </c>
       <c r="AQ21" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)</t>
+          <t>10 Years Later (MAPS)
+Subterranea - Kentucky</t>
         </is>
       </c>
       <c r="AR21" t="inlineStr">
@@ -6439,12 +7003,14 @@
       <c r="K22" t="inlineStr">
         <is>
           <t>Northwest Blockade
-10 Years Later (MAPS)</t>
+10 Years Later (MAPS)
+Riverside Cordon</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)</t>
+          <t>10 Years Later (MAPS)
+Riverside Cordon</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -6572,7 +7138,8 @@
         <is>
           <t>ç§‘é‡Œå°”ç™»(Coryerdon)
 10 Years Later (MAPS)
-Dirkerdam Alpha 0.05</t>
+Dirkerdam Alpha 0.05
+Taylorsville - Bridge to Dirkerdam</t>
         </is>
       </c>
       <c r="AH22" t="inlineStr">
@@ -6938,7 +7505,8 @@
         <is>
           <t>ç§‘é‡Œå°”ç™»(Coryerdon)
 10 Years Later (MAPS)
-Taylorsville</t>
+Taylorsville
+Taylorsville - Bridge to Dirkerdam</t>
         </is>
       </c>
       <c r="AH23" t="inlineStr">
@@ -6952,7 +7520,8 @@
         <is>
           <t>ç§‘é‡Œå°”ç™»(Coryerdon)
 10 Years Later (MAPS)
-Taylorsville</t>
+Taylorsville
+Taylorsville - Bridge to Coryerdon</t>
         </is>
       </c>
       <c r="AJ23" t="inlineStr">
@@ -6963,7 +7532,8 @@
       </c>
       <c r="AK23" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)</t>
+          <t>Lighthouse
+10 Years Later (MAPS)</t>
         </is>
       </c>
       <c r="AL23" t="inlineStr">
@@ -7165,37 +7735,43 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)</t>
+          <t>10 Years Later (MAPS)
+Highway KY (use only one)</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
           <t>10 Years Later (MAPS)
-Winchester, KY</t>
+Winchester, KY
+Highway KY (use only one)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
           <t>10 Years Later (MAPS)
-Winchester, KY</t>
+Winchester, KY
+Highway KY (use only one)</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
           <t>10 Years Later (MAPS)
-Winchester, KY</t>
+Winchester, KY
+Highway KY (use only one)</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
           <t>10 Years Later (MAPS)
-Winchester, KY</t>
+Winchester, KY
+Highway KY (use only one)</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
           <t>10 Years Later (MAPS)
-Winchester, KY</t>
+Winchester, KY
+Highway KY (use only one)</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -7336,7 +7912,8 @@
         <is>
           <t>ç§‘é‡Œå°”ç™»(Coryerdon)
 10 Years Later (MAPS)
-Taylorsville</t>
+Taylorsville
+Taylorsville - Bridge to Coryerdon</t>
         </is>
       </c>
       <c r="AJ24" t="inlineStr">
@@ -7369,6 +7946,8 @@
       <c r="AO24" t="inlineStr">
         <is>
           <t>10 Years Later (MAPS)
+Twiggy's Revamped
+Subterranea - Kentucky
 Fire station West Point</t>
         </is>
       </c>
@@ -7407,7 +7986,9 @@
       </c>
       <c r="AV24" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)</t>
+          <t>10 Years Later (MAPS)
+Tower 47 22
+Tower 47 22</t>
         </is>
       </c>
       <c r="AW24" t="inlineStr">
@@ -7542,38 +8123,44 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)</t>
+          <t>10 Years Later (MAPS)
+Highway KY (use only one)</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
           <t>10 Years Later (MAPS)
-Winchester, KY</t>
+Winchester, KY
+Highway KY (use only one)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
           <t>10 Years Later (MAPS)
-Winchester, KY</t>
+Winchester, KY
+Highway KY (use only one)</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
           <t>10 Years Later (MAPS)
-Winchester, KY</t>
+Winchester, KY
+Highway KY (use only one)</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
           <t>10 Years Later (MAPS)
-Winchester, KY</t>
+Winchester, KY
+Highway KY (use only one)</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
           <t>Refordville
 10 Years Later (MAPS)
-Winchester, KY</t>
+Winchester, KY
+Highway KY (use only one)</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -7735,7 +8322,8 @@
       </c>
       <c r="AL25" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)</t>
+          <t>West Point Fire Department
+10 Years Later (MAPS)</t>
         </is>
       </c>
       <c r="AM25" t="inlineStr">
@@ -7923,51 +8511,60 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)</t>
+          <t>10 Years Later (MAPS)
+Highway KY (use only one)</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
           <t>10 Years Later (MAPS)
-Winchester, KY</t>
+Winchester, KY
+Highway KY (use only one)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
           <t>10 Years Later (MAPS)
-Winchester, KY</t>
+Winchester, KY
+Highway KY (use only one)</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
           <t>10 Years Later (MAPS)
-Winchester, KY</t>
+Winchester, KY
+Highway KY (use only one)</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
           <t>10 Years Later (MAPS)
-Winchester, KY</t>
+Winchester, KY
+Highway KY (use only one)</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
           <t>Refordville
 10 Years Later (MAPS)
-Winchester, KY</t>
+Winchester, KY
+Pleford Springs
+Highway KY (use only one)</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
           <t>Refordville
 10 Years Later (MAPS)
-Winchester, KY</t>
+Winchester, KY
+Pleford Springs</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
           <t>10 Years Later (MAPS)
-Winchester, KY</t>
+Winchester, KY
+Pleford Springs</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -8089,12 +8686,14 @@
       <c r="AH26" t="inlineStr">
         <is>
           <t>10 Years Later (MAPS)
+Daisy County
 Taylorsville</t>
         </is>
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)</t>
+          <t>10 Years Later (MAPS)
+Daisy County</t>
         </is>
       </c>
       <c r="AJ26" t="inlineStr">
@@ -8297,37 +8896,44 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)</t>
+          <t>10 Years Later (MAPS)
+Highway KY (use only one)</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
           <t>10 Years Later (MAPS)
-Winchester, KY</t>
+Winchester, KY
+Highway KY (use only one)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
           <t>10 Years Later (MAPS)
-Winchester, KY</t>
+Winchester, KY
+Highway KY (use only one)</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
           <t>10 Years Later (MAPS)
-Winchester, KY</t>
+Winchester, KY
+Highway KY (use only one)</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
           <t>10 Years Later (MAPS)
-Winchester, KY</t>
+Winchester, KY
+Highway KY (use only one)</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
           <t>10 Years Later (MAPS)
-Winchester, KY</t>
+Winchester, KY
+Pleford Springs
+Highway KY (use only one)</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -8335,7 +8941,8 @@
           <t>10 Years Later (MAPS)
 Checkpoint_4
 Winchester, KY
-SZ_Checkpoint_4</t>
+SZ_Checkpoint_4
+Pleford Springs</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -8343,7 +8950,8 @@
           <t>10 Years Later (MAPS)
 Checkpoint_4
 Winchester, KY
-SZ_Checkpoint_4</t>
+SZ_Checkpoint_4
+Pleford Springs</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -8458,12 +9066,14 @@
       </c>
       <c r="AH27" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)</t>
+          <t>10 Years Later (MAPS)
+Daisy County</t>
         </is>
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)</t>
+          <t>10 Years Later (MAPS)
+Daisy County</t>
         </is>
       </c>
       <c r="AJ27" t="inlineStr">
@@ -8667,49 +9277,60 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)</t>
+          <t>10 Years Later (MAPS)
+Highway KY (use only one)</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
           <t>10 Years Later (MAPS)
-Winchester, KY</t>
+Winchester, KY
+Highway KY (use only one)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
           <t>10 Years Later (MAPS)
-Winchester, KY</t>
+Winchester, KY
+Highway KY (use only one)</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
           <t>10 Years Later (MAPS)
-Winchester, KY</t>
+Winchester, KY
+Highway KY (use only one)</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
           <t>10 Years Later (MAPS)
-Winchester, KY</t>
+Winchester, KY
+Highway KY (use only one)</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
           <t>10 Years Later (MAPS)
-Winchester, KY</t>
+Winchester, KY
+Pleford Springs
+Highway KY (use only one)</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
           <t>10 Years Later (MAPS)
-Winchester, KY</t>
+Winchester, KY
+Pleford Springs</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
           <t>10 Years Later (MAPS)
-Winchester, KY</t>
+Winchester, KY
+Pleford Springs
+Tower 13 26
+Tower 13 26</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -8800,15 +9421,18 @@
       <c r="AD28" t="inlineStr">
         <is>
           <t>10 Years Later (MAPS)
+Homepie
+Shelter 29 26
+Shelter 29 26
+Shelter 29 26 Clean</t>
+        </is>
+      </c>
+      <c r="AE28" t="inlineStr">
+        <is>
+          <t>10 Years Later (MAPS)
 Homepie</t>
         </is>
       </c>
-      <c r="AE28" t="inlineStr">
-        <is>
-          <t>10 Years Later (MAPS)
-Homepie</t>
-        </is>
-      </c>
       <c r="AF28" t="inlineStr">
         <is>
           <t>10 Years Later (MAPS)</t>
@@ -8821,13 +9445,14 @@
       </c>
       <c r="AH28" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)</t>
+          <t>10 Years Later (MAPS)
+Daisy County</t>
         </is>
       </c>
       <c r="AI28" t="inlineStr">
         <is>
           <t>10 Years Later (MAPS)
-Springwood</t>
+Daisy County</t>
         </is>
       </c>
       <c r="AJ28" t="inlineStr">
@@ -9034,51 +9659,58 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)</t>
+          <t>10 Years Later (MAPS)
+Highway KY (use only one)</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
           <t>10 Years Later (MAPS)
+Winchester, KY
+Highway KY (use only one)</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>10 Years Later (MAPS)
+Winchester, KY
+Highway KY (use only one)</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>10 Years Later (MAPS)
+Winchester, KY
+Highway KY (use only one)</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>10 Years Later (MAPS)
+Winchester, KY
+Highway KY (use only one)</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>10 Years Later (MAPS)
+Winchester, KY
+Highway KY (use only one)</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>10 Years Later (MAPS)
+Winchester, KY
+Highway KY (use only one)</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>10 Years Later (MAPS)
 Winchester, KY</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>10 Years Later (MAPS)
-Winchester, KY</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>10 Years Later (MAPS)
-Winchester, KY</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>10 Years Later (MAPS)
-Winchester, KY</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>10 Years Later (MAPS)
-Winchester, KY</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>10 Years Later (MAPS)
-Winchester, KY</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>10 Years Later (MAPS)
-Winchester, KY</t>
-        </is>
-      </c>
       <c r="O29" t="inlineStr">
         <is>
           <t>10 Years Later (MAPS)</t>
@@ -9190,8 +9822,7 @@
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)
-Springwood</t>
+          <t>10 Years Later (MAPS)</t>
         </is>
       </c>
       <c r="AJ29" t="inlineStr">
@@ -9208,7 +9839,8 @@
       </c>
       <c r="AL29" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)</t>
+          <t>10 Years Later (MAPS)
+Restore Utilities - Map</t>
         </is>
       </c>
       <c r="AM29" t="inlineStr">
@@ -9261,6 +9893,7 @@
       <c r="AT29" t="inlineStr">
         <is>
           <t>10 Years Later (MAPS)
+New Tersh North Connection Road
 Bedford Falls</t>
         </is>
       </c>
@@ -9464,7 +10097,9 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)</t>
+          <t>10 Years Later (MAPS)
+Shelter 22 28
+Shelter 22 28</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
@@ -9481,7 +10116,8 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)</t>
+          <t>10 Years Later (MAPS)
+Ekron mansion</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -9492,7 +10128,8 @@
       <c r="AB30" t="inlineStr">
         <is>
           <t>Little Township
-10 Years Later (MAPS)</t>
+10 Years Later (MAPS)
+Homestead Windy</t>
         </is>
       </c>
       <c r="AC30" t="inlineStr">
@@ -9561,14 +10198,16 @@
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)
+          <t>Survivor Warehouse (No JSOC Occupation)
+10 Years Later (MAPS)
 Monmouth County
 Monmouth County Tribute Legacy</t>
         </is>
       </c>
       <c r="AP30" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)
+          <t>Survivor Warehouse (No JSOC Occupation)
+10 Years Later (MAPS)
 Monmouth County
 Monmouth County Tribute Legacy</t>
         </is>
@@ -9598,6 +10237,7 @@
       <c r="AT30" t="inlineStr">
         <is>
           <t>10 Years Later (MAPS)
+New Tersh North Connection Road
 Bedford Falls</t>
         </is>
       </c>
@@ -9922,29 +10562,34 @@
       <c r="AT31" t="inlineStr">
         <is>
           <t>10 Years Later (MAPS)
+New Tersh
 Bedford Falls</t>
         </is>
       </c>
       <c r="AU31" t="inlineStr">
         <is>
           <t>10 Years Later (MAPS)
+New Tersh
 Bedford Falls</t>
         </is>
       </c>
       <c r="AV31" t="inlineStr">
         <is>
           <t>10 Years Later (MAPS)
+New Tersh
 Bedford Falls</t>
         </is>
       </c>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)</t>
+          <t>10 Years Later (MAPS)
+New Tersh</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)</t>
+          <t>10 Years Later (MAPS)
+New Tersh</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr">
@@ -10072,7 +10717,8 @@
       <c r="N32" t="inlineStr">
         <is>
           <t>10 Years Later (MAPS)
-St Paulo's Hammer</t>
+St Paulo's Hammer
+PineVille</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -10217,7 +10863,9 @@
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)</t>
+          <t>10 Years Later (MAPS)
+Shelter 40 30
+Shelter 40 30</t>
         </is>
       </c>
       <c r="AP32" t="inlineStr">
@@ -10243,29 +10891,34 @@
       <c r="AT32" t="inlineStr">
         <is>
           <t>10 Years Later (MAPS)
+New Tersh
 Bedford Falls</t>
         </is>
       </c>
       <c r="AU32" t="inlineStr">
         <is>
           <t>10 Years Later (MAPS)
+New Tersh
 Bedford Falls</t>
         </is>
       </c>
       <c r="AV32" t="inlineStr">
         <is>
           <t>10 Years Later (MAPS)
+New Tersh
 Bedford Falls</t>
         </is>
       </c>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)</t>
+          <t>10 Years Later (MAPS)
+New Tersh</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)</t>
+          <t>10 Years Later (MAPS)
+New Tersh</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr">
@@ -10393,13 +11046,15 @@
       <c r="N33" t="inlineStr">
         <is>
           <t>10 Years Later (MAPS)
-St Paulo's Hammer</t>
+St Paulo's Hammer
+PineVille</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
           <t>10 Years Later (MAPS)
-St Paulo's Hammer</t>
+St Paulo's Hammer
+PineVille</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -10541,17 +11196,20 @@
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)</t>
+          <t>10 Years Later (MAPS)
+Ztardew Valley</t>
         </is>
       </c>
       <c r="AP33" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)</t>
+          <t>10 Years Later (MAPS)
+Ztardew Valley</t>
         </is>
       </c>
       <c r="AQ33" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)</t>
+          <t>10 Years Later (MAPS)
+Ztardew Valley</t>
         </is>
       </c>
       <c r="AR33" t="inlineStr">
@@ -10567,29 +11225,34 @@
       <c r="AT33" t="inlineStr">
         <is>
           <t>10 Years Later (MAPS)
+New Tersh
 Bedford Falls</t>
         </is>
       </c>
       <c r="AU33" t="inlineStr">
         <is>
           <t>10 Years Later (MAPS)
+New Tersh
 Bedford Falls</t>
         </is>
       </c>
       <c r="AV33" t="inlineStr">
         <is>
           <t>10 Years Later (MAPS)
+New Tersh
 Bedford Falls</t>
         </is>
       </c>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)</t>
+          <t>10 Years Later (MAPS)
+New Tersh</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)</t>
+          <t>10 Years Later (MAPS)
+New Tersh</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr">
@@ -10721,21 +11384,23 @@
       <c r="N34" t="inlineStr">
         <is>
           <t>10 Years Later (MAPS)
+St Paulo's Hammer
+PineVille</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>10 Years Later (MAPS)
+St Paulo's Hammer
+PineVille</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>10 Years Later (MAPS)
 St Paulo's Hammer</t>
         </is>
       </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>10 Years Later (MAPS)
-St Paulo's Hammer</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>10 Years Later (MAPS)
-St Paulo's Hammer</t>
-        </is>
-      </c>
       <c r="Q34" t="inlineStr">
         <is>
           <t>10 Years Later (MAPS)
@@ -10841,7 +11506,8 @@
       </c>
       <c r="AJ34" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)</t>
+          <t>10 Years Later (MAPS)
+Subterranea - Kentucky</t>
         </is>
       </c>
       <c r="AK34" t="inlineStr">
@@ -10871,19 +11537,22 @@
       <c r="AO34" t="inlineStr">
         <is>
           <t>Tugaland
-10 Years Later (MAPS)</t>
+10 Years Later (MAPS)
+Ztardew Valley</t>
         </is>
       </c>
       <c r="AP34" t="inlineStr">
         <is>
           <t>Tugaland
-10 Years Later (MAPS)</t>
+10 Years Later (MAPS)
+Ztardew Valley</t>
         </is>
       </c>
       <c r="AQ34" t="inlineStr">
         <is>
           <t>Tugaland
-10 Years Later (MAPS)</t>
+10 Years Later (MAPS)
+Ztardew Valley</t>
         </is>
       </c>
       <c r="AR34" t="inlineStr">
@@ -10899,6 +11568,7 @@
       <c r="AT34" t="inlineStr">
         <is>
           <t>10 Years Later (MAPS)
+New Tersh South Road To Knox
 Bedford Falls</t>
         </is>
       </c>
@@ -11049,13 +11719,15 @@
       <c r="N35" t="inlineStr">
         <is>
           <t>10 Years Later (MAPS)
-St Paulo's Hammer</t>
+St Paulo's Hammer
+PineVille</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
           <t>10 Years Later (MAPS)
-St Paulo's Hammer</t>
+St Paulo's Hammer
+PineVille</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -11113,7 +11785,10 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)</t>
+          <t>10 Years Later (MAPS)
+Shelter 25 33
+Shelter 25 33
+Shelter 25 33 Clean</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -11199,19 +11874,22 @@
       <c r="AO35" t="inlineStr">
         <is>
           <t>Tugaland
-10 Years Later (MAPS)</t>
+10 Years Later (MAPS)
+Ztardew Valley</t>
         </is>
       </c>
       <c r="AP35" t="inlineStr">
         <is>
           <t>Tugaland
-10 Years Later (MAPS)</t>
+10 Years Later (MAPS)
+Ztardew Valley</t>
         </is>
       </c>
       <c r="AQ35" t="inlineStr">
         <is>
           <t>Tugaland
-10 Years Later (MAPS)</t>
+10 Years Later (MAPS)
+Ztardew Valley</t>
         </is>
       </c>
       <c r="AR35" t="inlineStr">
@@ -11229,6 +11907,7 @@
       <c r="AT35" t="inlineStr">
         <is>
           <t>10 Years Later (MAPS)
+New Tersh South Road To Knox
 Bedford Falls</t>
         </is>
       </c>
@@ -11461,13 +12140,15 @@
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)</t>
+          <t>10 Years Later (MAPS)
+Taibeiroad3</t>
         </is>
       </c>
       <c r="AD36" t="inlineStr">
         <is>
           <t>Lake Ivy Township
-10 Years Later (MAPS)</t>
+10 Years Later (MAPS)
+Taibeiroad3</t>
         </is>
       </c>
       <c r="AE36" t="inlineStr">
@@ -11560,6 +12241,7 @@
       <c r="AT36" t="inlineStr">
         <is>
           <t>10 Years Later (MAPS)
+New Tersh South Road To Knox
 Bedford Falls</t>
         </is>
       </c>
@@ -11787,17 +12469,20 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)</t>
+          <t>10 Years Later (MAPS)
+Taibeiroad3</t>
         </is>
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)</t>
+          <t>10 Years Later (MAPS)
+Taibeiroad3</t>
         </is>
       </c>
       <c r="AD37" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)</t>
+          <t>10 Years Later (MAPS)
+Taibeiroad3</t>
         </is>
       </c>
       <c r="AE37" t="inlineStr">
@@ -11834,7 +12519,8 @@
         <is>
           <t>Muldraugh Fire Department
 10 Years Later (MAPS)
-Checkpoint South Muldraugh</t>
+Checkpoint South Muldraugh
+Only Checkpoint South Muldraugh</t>
         </is>
       </c>
       <c r="AK37" t="inlineStr">
@@ -11887,6 +12573,7 @@
       <c r="AT37" t="inlineStr">
         <is>
           <t>10 Years Later (MAPS)
+New Tersh South Road To Knox
 Bedford Falls</t>
         </is>
       </c>
@@ -11940,11 +12627,31 @@
       <c r="BD37" t="inlineStr"/>
       <c r="BE37" t="inlineStr"/>
       <c r="BF37" t="inlineStr"/>
-      <c r="BG37" t="inlineStr"/>
-      <c r="BH37" t="inlineStr"/>
-      <c r="BI37" t="inlineStr"/>
-      <c r="BJ37" t="inlineStr"/>
-      <c r="BK37" t="inlineStr"/>
+      <c r="BG37" t="inlineStr">
+        <is>
+          <t>Subterranea - Kentucky</t>
+        </is>
+      </c>
+      <c r="BH37" t="inlineStr">
+        <is>
+          <t>Subterranea - Kentucky</t>
+        </is>
+      </c>
+      <c r="BI37" t="inlineStr">
+        <is>
+          <t>Subterranea - Kentucky</t>
+        </is>
+      </c>
+      <c r="BJ37" t="inlineStr">
+        <is>
+          <t>Subterranea - Kentucky</t>
+        </is>
+      </c>
+      <c r="BK37" t="inlineStr">
+        <is>
+          <t>Subterranea - Kentucky</t>
+        </is>
+      </c>
       <c r="BL37" t="inlineStr"/>
       <c r="BM37" t="inlineStr"/>
       <c r="BN37" t="inlineStr"/>
@@ -12109,18 +12816,21 @@
         <is>
           <t>Rosewood Expansion
 10 Years Later (MAPS)
+Taibeiroad3
 Cabins By The Lake 2.0</t>
         </is>
       </c>
       <c r="AC38" t="inlineStr">
         <is>
           <t>Rosewood Expansion
-10 Years Later (MAPS)</t>
+10 Years Later (MAPS)
+Taibeiroad3</t>
         </is>
       </c>
       <c r="AD38" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)</t>
+          <t>10 Years Later (MAPS)
+Taibeiroad3</t>
         </is>
       </c>
       <c r="AE38" t="inlineStr">
@@ -12210,6 +12920,7 @@
       <c r="AT38" t="inlineStr">
         <is>
           <t>10 Years Later (MAPS)
+New Tersh South Road To Knox
 Bedford Falls</t>
         </is>
       </c>
@@ -12263,11 +12974,31 @@
       <c r="BD38" t="inlineStr"/>
       <c r="BE38" t="inlineStr"/>
       <c r="BF38" t="inlineStr"/>
-      <c r="BG38" t="inlineStr"/>
-      <c r="BH38" t="inlineStr"/>
-      <c r="BI38" t="inlineStr"/>
-      <c r="BJ38" t="inlineStr"/>
-      <c r="BK38" t="inlineStr"/>
+      <c r="BG38" t="inlineStr">
+        <is>
+          <t>Subterranea - Kentucky</t>
+        </is>
+      </c>
+      <c r="BH38" t="inlineStr">
+        <is>
+          <t>Subterranea - Kentucky</t>
+        </is>
+      </c>
+      <c r="BI38" t="inlineStr">
+        <is>
+          <t>Subterranea - Kentucky</t>
+        </is>
+      </c>
+      <c r="BJ38" t="inlineStr">
+        <is>
+          <t>Subterranea - Kentucky</t>
+        </is>
+      </c>
+      <c r="BK38" t="inlineStr">
+        <is>
+          <t>Subterranea - Kentucky</t>
+        </is>
+      </c>
       <c r="BL38" t="inlineStr"/>
       <c r="BM38" t="inlineStr"/>
       <c r="BN38" t="inlineStr"/>
@@ -12406,7 +13137,8 @@
       <c r="T39" t="inlineStr">
         <is>
           <t>Fort Redstone, KY
-10 Years Later (MAPS)</t>
+10 Years Later (MAPS)
+Restore Utilities - Map</t>
         </is>
       </c>
       <c r="U39" t="inlineStr">
@@ -12456,6 +13188,7 @@
         <is>
           <t>Rosewood Expansion
 10 Years Later (MAPS)
+Taibeiroad3
 Checkpoint Rosewood Remake
 Checkpoint Rosewood Only Checkpoint</t>
         </is>
@@ -12463,12 +13196,14 @@
       <c r="AC39" t="inlineStr">
         <is>
           <t>Rosewood Expansion
-10 Years Later (MAPS)</t>
+10 Years Later (MAPS)
+Taibeiroad3</t>
         </is>
       </c>
       <c r="AD39" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)</t>
+          <t>10 Years Later (MAPS)
+Taibeiroad3</t>
         </is>
       </c>
       <c r="AE39" t="inlineStr">
@@ -12552,24 +13287,28 @@
       <c r="AQ39" t="inlineStr">
         <is>
           <t>10 Years Later (MAPS)
+New Tersh South Road To Knox
 Bedford Falls</t>
         </is>
       </c>
       <c r="AR39" t="inlineStr">
         <is>
           <t>10 Years Later (MAPS)
+New Tersh South Road To Knox
 Bedford Falls</t>
         </is>
       </c>
       <c r="AS39" t="inlineStr">
         <is>
           <t>10 Years Later (MAPS)
+New Tersh South Road To Knox
 Bedford Falls</t>
         </is>
       </c>
       <c r="AT39" t="inlineStr">
         <is>
           <t>10 Years Later (MAPS)
+New Tersh South Road To Knox
 Bedford Falls</t>
         </is>
       </c>
@@ -12623,11 +13362,31 @@
       <c r="BD39" t="inlineStr"/>
       <c r="BE39" t="inlineStr"/>
       <c r="BF39" t="inlineStr"/>
-      <c r="BG39" t="inlineStr"/>
-      <c r="BH39" t="inlineStr"/>
-      <c r="BI39" t="inlineStr"/>
-      <c r="BJ39" t="inlineStr"/>
-      <c r="BK39" t="inlineStr"/>
+      <c r="BG39" t="inlineStr">
+        <is>
+          <t>Subterranea - Kentucky</t>
+        </is>
+      </c>
+      <c r="BH39" t="inlineStr">
+        <is>
+          <t>Subterranea - Kentucky</t>
+        </is>
+      </c>
+      <c r="BI39" t="inlineStr">
+        <is>
+          <t>Subterranea - Kentucky</t>
+        </is>
+      </c>
+      <c r="BJ39" t="inlineStr">
+        <is>
+          <t>Subterranea - Kentucky</t>
+        </is>
+      </c>
+      <c r="BK39" t="inlineStr">
+        <is>
+          <t>Subterranea - Kentucky</t>
+        </is>
+      </c>
       <c r="BL39" t="inlineStr"/>
       <c r="BM39" t="inlineStr"/>
       <c r="BN39" t="inlineStr"/>
@@ -12806,7 +13565,8 @@
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)</t>
+          <t>10 Years Later (MAPS)
+Subterranea - Kentucky</t>
         </is>
       </c>
       <c r="AB40" t="inlineStr">
@@ -12816,12 +13576,14 @@
       </c>
       <c r="AC40" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)</t>
+          <t>10 Years Later (MAPS)
+Taibeiroad3</t>
         </is>
       </c>
       <c r="AD40" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)</t>
+          <t>10 Years Later (MAPS)
+Taibeiroad3</t>
         </is>
       </c>
       <c r="AE40" t="inlineStr">
@@ -12966,11 +13728,31 @@
       <c r="BD40" t="inlineStr"/>
       <c r="BE40" t="inlineStr"/>
       <c r="BF40" t="inlineStr"/>
-      <c r="BG40" t="inlineStr"/>
-      <c r="BH40" t="inlineStr"/>
-      <c r="BI40" t="inlineStr"/>
-      <c r="BJ40" t="inlineStr"/>
-      <c r="BK40" t="inlineStr"/>
+      <c r="BG40" t="inlineStr">
+        <is>
+          <t>Subterranea - Kentucky</t>
+        </is>
+      </c>
+      <c r="BH40" t="inlineStr">
+        <is>
+          <t>Subterranea - Kentucky</t>
+        </is>
+      </c>
+      <c r="BI40" t="inlineStr">
+        <is>
+          <t>Subterranea - Kentucky</t>
+        </is>
+      </c>
+      <c r="BJ40" t="inlineStr">
+        <is>
+          <t>Subterranea - Kentucky</t>
+        </is>
+      </c>
+      <c r="BK40" t="inlineStr">
+        <is>
+          <t>Subterranea - Kentucky</t>
+        </is>
+      </c>
       <c r="BL40" t="inlineStr"/>
       <c r="BM40" t="inlineStr"/>
       <c r="BN40" t="inlineStr"/>
@@ -13163,12 +13945,14 @@
       </c>
       <c r="AC41" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)</t>
+          <t>10 Years Later (MAPS)
+Trapalaketown</t>
         </is>
       </c>
       <c r="AD41" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)</t>
+          <t>10 Years Later (MAPS)
+Trapalaketown</t>
         </is>
       </c>
       <c r="AE41" t="inlineStr">
@@ -13290,27 +14074,54 @@
       </c>
       <c r="BA41" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)</t>
+          <t>10 Years Later (MAPS)
+Subterranea - Kentucky</t>
         </is>
       </c>
       <c r="BB41" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)</t>
+          <t>10 Years Later (MAPS)
+Subterranea - Kentucky</t>
         </is>
       </c>
       <c r="BC41" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)</t>
-        </is>
-      </c>
-      <c r="BD41" t="inlineStr"/>
+          <t>10 Years Later (MAPS)
+Subterranea - Kentucky</t>
+        </is>
+      </c>
+      <c r="BD41" t="inlineStr">
+        <is>
+          <t>Subterranea - Kentucky</t>
+        </is>
+      </c>
       <c r="BE41" t="inlineStr"/>
       <c r="BF41" t="inlineStr"/>
-      <c r="BG41" t="inlineStr"/>
-      <c r="BH41" t="inlineStr"/>
-      <c r="BI41" t="inlineStr"/>
-      <c r="BJ41" t="inlineStr"/>
-      <c r="BK41" t="inlineStr"/>
+      <c r="BG41" t="inlineStr">
+        <is>
+          <t>Subterranea - Kentucky</t>
+        </is>
+      </c>
+      <c r="BH41" t="inlineStr">
+        <is>
+          <t>Subterranea - Kentucky</t>
+        </is>
+      </c>
+      <c r="BI41" t="inlineStr">
+        <is>
+          <t>Subterranea - Kentucky</t>
+        </is>
+      </c>
+      <c r="BJ41" t="inlineStr">
+        <is>
+          <t>Subterranea - Kentucky</t>
+        </is>
+      </c>
+      <c r="BK41" t="inlineStr">
+        <is>
+          <t>Subterranea - Kentucky</t>
+        </is>
+      </c>
       <c r="BL41" t="inlineStr"/>
       <c r="BM41" t="inlineStr"/>
       <c r="BN41" t="inlineStr"/>
@@ -13540,7 +14351,9 @@
       <c r="AK42" t="inlineStr">
         <is>
           <t>10 Years Later (MAPS)
-Petroville</t>
+Petroville
+MK Hospital Area_Normal
+MK Hospital Area_Horde</t>
         </is>
       </c>
       <c r="AL42" t="inlineStr">
@@ -13625,27 +14438,54 @@
       </c>
       <c r="BA42" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)</t>
+          <t>10 Years Later (MAPS)
+Subterranea - Kentucky</t>
         </is>
       </c>
       <c r="BB42" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)</t>
+          <t>10 Years Later (MAPS)
+Subterranea - Kentucky</t>
         </is>
       </c>
       <c r="BC42" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)</t>
-        </is>
-      </c>
-      <c r="BD42" t="inlineStr"/>
+          <t>10 Years Later (MAPS)
+Subterranea - Kentucky</t>
+        </is>
+      </c>
+      <c r="BD42" t="inlineStr">
+        <is>
+          <t>Subterranea - Kentucky</t>
+        </is>
+      </c>
       <c r="BE42" t="inlineStr"/>
       <c r="BF42" t="inlineStr"/>
-      <c r="BG42" t="inlineStr"/>
-      <c r="BH42" t="inlineStr"/>
-      <c r="BI42" t="inlineStr"/>
-      <c r="BJ42" t="inlineStr"/>
-      <c r="BK42" t="inlineStr"/>
+      <c r="BG42" t="inlineStr">
+        <is>
+          <t>Subterranea - Kentucky</t>
+        </is>
+      </c>
+      <c r="BH42" t="inlineStr">
+        <is>
+          <t>Subterranea - Kentucky</t>
+        </is>
+      </c>
+      <c r="BI42" t="inlineStr">
+        <is>
+          <t>Subterranea - Kentucky</t>
+        </is>
+      </c>
+      <c r="BJ42" t="inlineStr">
+        <is>
+          <t>Subterranea - Kentucky</t>
+        </is>
+      </c>
+      <c r="BK42" t="inlineStr">
+        <is>
+          <t>Subterranea - Kentucky</t>
+        </is>
+      </c>
       <c r="BL42" t="inlineStr"/>
       <c r="BM42" t="inlineStr"/>
       <c r="BN42" t="inlineStr"/>
@@ -13851,7 +14691,8 @@
         <is>
           <t>Research Facility, KY (Access Road)
 Research Facility, KY (Access Road) (OLD VERSION)
-10 Years Later (MAPS)</t>
+10 Years Later (MAPS)
+Quarantine Zone Rosewood</t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
@@ -13902,7 +14743,8 @@
       </c>
       <c r="AI43" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)</t>
+          <t>10 Years Later (MAPS)
+Checkpoint March Ridge</t>
         </is>
       </c>
       <c r="AJ43" t="inlineStr">
@@ -13914,7 +14756,9 @@
       <c r="AK43" t="inlineStr">
         <is>
           <t>10 Years Later (MAPS)
-Petroville</t>
+Petroville
+MK Hospital Area_Normal
+MK Hospital Area_Horde</t>
         </is>
       </c>
       <c r="AL43" t="inlineStr">
@@ -13999,27 +14843,62 @@
       </c>
       <c r="BA43" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)</t>
+          <t>10 Years Later (MAPS)
+Subterranea - Kentucky</t>
         </is>
       </c>
       <c r="BB43" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)</t>
+          <t>10 Years Later (MAPS)
+Subterranea - Kentucky</t>
         </is>
       </c>
       <c r="BC43" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)</t>
-        </is>
-      </c>
-      <c r="BD43" t="inlineStr"/>
-      <c r="BE43" t="inlineStr"/>
-      <c r="BF43" t="inlineStr"/>
-      <c r="BG43" t="inlineStr"/>
-      <c r="BH43" t="inlineStr"/>
-      <c r="BI43" t="inlineStr"/>
-      <c r="BJ43" t="inlineStr"/>
-      <c r="BK43" t="inlineStr"/>
+          <t>10 Years Later (MAPS)
+Subterranea - Kentucky</t>
+        </is>
+      </c>
+      <c r="BD43" t="inlineStr">
+        <is>
+          <t>Subterranea - Kentucky</t>
+        </is>
+      </c>
+      <c r="BE43" t="inlineStr">
+        <is>
+          <t>Subterranea - Kentucky</t>
+        </is>
+      </c>
+      <c r="BF43" t="inlineStr">
+        <is>
+          <t>Subterranea - Kentucky</t>
+        </is>
+      </c>
+      <c r="BG43" t="inlineStr">
+        <is>
+          <t>Subterranea - Kentucky</t>
+        </is>
+      </c>
+      <c r="BH43" t="inlineStr">
+        <is>
+          <t>Subterranea - Kentucky</t>
+        </is>
+      </c>
+      <c r="BI43" t="inlineStr">
+        <is>
+          <t>Subterranea - Kentucky</t>
+        </is>
+      </c>
+      <c r="BJ43" t="inlineStr">
+        <is>
+          <t>Subterranea - Kentucky</t>
+        </is>
+      </c>
+      <c r="BK43" t="inlineStr">
+        <is>
+          <t>Subterranea - Kentucky</t>
+        </is>
+      </c>
       <c r="BL43" t="inlineStr"/>
       <c r="BM43" t="inlineStr"/>
       <c r="BN43" t="inlineStr"/>
@@ -14251,7 +15130,8 @@
       <c r="AF44" t="inlineStr">
         <is>
           <t>C.O.N. Research &amp; Testing Facility
-10 Years Later (MAPS)</t>
+10 Years Later (MAPS)
+Bushcrafters Haven</t>
         </is>
       </c>
       <c r="AG44" t="inlineStr">
@@ -14262,7 +15142,8 @@
       </c>
       <c r="AH44" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)</t>
+          <t>10 Years Later (MAPS)
+Subterranea - Kentucky</t>
         </is>
       </c>
       <c r="AI44" t="inlineStr">
@@ -14361,27 +15242,62 @@
       </c>
       <c r="BA44" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)</t>
+          <t>10 Years Later (MAPS)
+Subterranea - Kentucky</t>
         </is>
       </c>
       <c r="BB44" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)</t>
+          <t>10 Years Later (MAPS)
+Subterranea - Kentucky</t>
         </is>
       </c>
       <c r="BC44" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)</t>
-        </is>
-      </c>
-      <c r="BD44" t="inlineStr"/>
-      <c r="BE44" t="inlineStr"/>
-      <c r="BF44" t="inlineStr"/>
-      <c r="BG44" t="inlineStr"/>
-      <c r="BH44" t="inlineStr"/>
-      <c r="BI44" t="inlineStr"/>
-      <c r="BJ44" t="inlineStr"/>
-      <c r="BK44" t="inlineStr"/>
+          <t>10 Years Later (MAPS)
+Subterranea - Kentucky</t>
+        </is>
+      </c>
+      <c r="BD44" t="inlineStr">
+        <is>
+          <t>Subterranea - Kentucky</t>
+        </is>
+      </c>
+      <c r="BE44" t="inlineStr">
+        <is>
+          <t>Subterranea - Kentucky</t>
+        </is>
+      </c>
+      <c r="BF44" t="inlineStr">
+        <is>
+          <t>Subterranea - Kentucky</t>
+        </is>
+      </c>
+      <c r="BG44" t="inlineStr">
+        <is>
+          <t>Subterranea - Kentucky</t>
+        </is>
+      </c>
+      <c r="BH44" t="inlineStr">
+        <is>
+          <t>Subterranea - Kentucky</t>
+        </is>
+      </c>
+      <c r="BI44" t="inlineStr">
+        <is>
+          <t>Subterranea - Kentucky</t>
+        </is>
+      </c>
+      <c r="BJ44" t="inlineStr">
+        <is>
+          <t>Subterranea - Kentucky</t>
+        </is>
+      </c>
+      <c r="BK44" t="inlineStr">
+        <is>
+          <t>Subterranea - Kentucky</t>
+        </is>
+      </c>
       <c r="BL44" t="inlineStr"/>
       <c r="BM44" t="inlineStr"/>
       <c r="BN44" t="inlineStr"/>
@@ -14626,13 +15542,15 @@
       <c r="AI45" t="inlineStr">
         <is>
           <t>10 Years Later (MAPS)
-Military Fuel Depot</t>
+Military Fuel Depot
+EP MFD</t>
         </is>
       </c>
       <c r="AJ45" t="inlineStr">
         <is>
           <t>10 Years Later (MAPS)
-Military Fuel Depot</t>
+Military Fuel Depot
+EP MFD</t>
         </is>
       </c>
       <c r="AK45" t="inlineStr">
@@ -14721,25 +15639,52 @@
       </c>
       <c r="BA45" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)</t>
+          <t>10 Years Later (MAPS)
+Subterranea - Kentucky</t>
         </is>
       </c>
       <c r="BB45" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)</t>
+          <t>10 Years Later (MAPS)
+Subterranea - Kentucky</t>
         </is>
       </c>
       <c r="BC45" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)</t>
-        </is>
-      </c>
-      <c r="BD45" t="inlineStr"/>
-      <c r="BE45" t="inlineStr"/>
-      <c r="BF45" t="inlineStr"/>
-      <c r="BG45" t="inlineStr"/>
-      <c r="BH45" t="inlineStr"/>
-      <c r="BI45" t="inlineStr"/>
+          <t>10 Years Later (MAPS)
+Subterranea - Kentucky</t>
+        </is>
+      </c>
+      <c r="BD45" t="inlineStr">
+        <is>
+          <t>Subterranea - Kentucky</t>
+        </is>
+      </c>
+      <c r="BE45" t="inlineStr">
+        <is>
+          <t>Subterranea - Kentucky</t>
+        </is>
+      </c>
+      <c r="BF45" t="inlineStr">
+        <is>
+          <t>Subterranea - Kentucky</t>
+        </is>
+      </c>
+      <c r="BG45" t="inlineStr">
+        <is>
+          <t>Subterranea - Kentucky</t>
+        </is>
+      </c>
+      <c r="BH45" t="inlineStr">
+        <is>
+          <t>Subterranea - Kentucky</t>
+        </is>
+      </c>
+      <c r="BI45" t="inlineStr">
+        <is>
+          <t>Subterranea - Kentucky</t>
+        </is>
+      </c>
       <c r="BJ45" t="inlineStr"/>
       <c r="BK45" t="inlineStr"/>
       <c r="BL45" t="inlineStr"/>
@@ -14997,14 +15942,16 @@
         <is>
           <t>10 Years Later (MAPS)
 Military Fuel Depot
-Elliot Pond</t>
+Elliot Pond
+EP MFD</t>
         </is>
       </c>
       <c r="AJ46" t="inlineStr">
         <is>
           <t>10 Years Later (MAPS)
 Military Fuel Depot
-Elliot Pond</t>
+Elliot Pond
+EP MFD</t>
         </is>
       </c>
       <c r="AK46" t="inlineStr">
@@ -15111,15 +16058,40 @@
       </c>
       <c r="BC46" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)</t>
-        </is>
-      </c>
-      <c r="BD46" t="inlineStr"/>
-      <c r="BE46" t="inlineStr"/>
-      <c r="BF46" t="inlineStr"/>
-      <c r="BG46" t="inlineStr"/>
-      <c r="BH46" t="inlineStr"/>
-      <c r="BI46" t="inlineStr"/>
+          <t>10 Years Later (MAPS)
+Subterranea - Kentucky</t>
+        </is>
+      </c>
+      <c r="BD46" t="inlineStr">
+        <is>
+          <t>Subterranea - Kentucky</t>
+        </is>
+      </c>
+      <c r="BE46" t="inlineStr">
+        <is>
+          <t>Subterranea - Kentucky</t>
+        </is>
+      </c>
+      <c r="BF46" t="inlineStr">
+        <is>
+          <t>Subterranea - Kentucky</t>
+        </is>
+      </c>
+      <c r="BG46" t="inlineStr">
+        <is>
+          <t>Subterranea - Kentucky</t>
+        </is>
+      </c>
+      <c r="BH46" t="inlineStr">
+        <is>
+          <t>Subterranea - Kentucky</t>
+        </is>
+      </c>
+      <c r="BI46" t="inlineStr">
+        <is>
+          <t>Subterranea - Kentucky</t>
+        </is>
+      </c>
       <c r="BJ46" t="inlineStr"/>
       <c r="BK46" t="inlineStr"/>
       <c r="BL46" t="inlineStr"/>
@@ -15481,13 +16453,30 @@
       </c>
       <c r="BC47" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)</t>
-        </is>
-      </c>
-      <c r="BD47" t="inlineStr"/>
-      <c r="BE47" t="inlineStr"/>
-      <c r="BF47" t="inlineStr"/>
-      <c r="BG47" t="inlineStr"/>
+          <t>10 Years Later (MAPS)
+Subterranea - Kentucky</t>
+        </is>
+      </c>
+      <c r="BD47" t="inlineStr">
+        <is>
+          <t>Subterranea - Kentucky</t>
+        </is>
+      </c>
+      <c r="BE47" t="inlineStr">
+        <is>
+          <t>Subterranea - Kentucky</t>
+        </is>
+      </c>
+      <c r="BF47" t="inlineStr">
+        <is>
+          <t>Subterranea - Kentucky</t>
+        </is>
+      </c>
+      <c r="BG47" t="inlineStr">
+        <is>
+          <t>Subterranea - Kentucky</t>
+        </is>
+      </c>
       <c r="BH47" t="inlineStr"/>
       <c r="BI47" t="inlineStr"/>
       <c r="BJ47" t="inlineStr"/>
@@ -15819,13 +16808,30 @@
       </c>
       <c r="BC48" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)</t>
-        </is>
-      </c>
-      <c r="BD48" t="inlineStr"/>
-      <c r="BE48" t="inlineStr"/>
-      <c r="BF48" t="inlineStr"/>
-      <c r="BG48" t="inlineStr"/>
+          <t>10 Years Later (MAPS)
+Subterranea - Kentucky</t>
+        </is>
+      </c>
+      <c r="BD48" t="inlineStr">
+        <is>
+          <t>Subterranea - Kentucky</t>
+        </is>
+      </c>
+      <c r="BE48" t="inlineStr">
+        <is>
+          <t>Subterranea - Kentucky</t>
+        </is>
+      </c>
+      <c r="BF48" t="inlineStr">
+        <is>
+          <t>Subterranea - Kentucky</t>
+        </is>
+      </c>
+      <c r="BG48" t="inlineStr">
+        <is>
+          <t>Subterranea - Kentucky</t>
+        </is>
+      </c>
       <c r="BH48" t="inlineStr"/>
       <c r="BI48" t="inlineStr"/>
       <c r="BJ48" t="inlineStr"/>
@@ -16155,13 +17161,30 @@
       </c>
       <c r="BC49" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)</t>
-        </is>
-      </c>
-      <c r="BD49" t="inlineStr"/>
-      <c r="BE49" t="inlineStr"/>
-      <c r="BF49" t="inlineStr"/>
-      <c r="BG49" t="inlineStr"/>
+          <t>10 Years Later (MAPS)
+Subterranea - Kentucky</t>
+        </is>
+      </c>
+      <c r="BD49" t="inlineStr">
+        <is>
+          <t>Subterranea - Kentucky</t>
+        </is>
+      </c>
+      <c r="BE49" t="inlineStr">
+        <is>
+          <t>Subterranea - Kentucky</t>
+        </is>
+      </c>
+      <c r="BF49" t="inlineStr">
+        <is>
+          <t>Subterranea - Kentucky</t>
+        </is>
+      </c>
+      <c r="BG49" t="inlineStr">
+        <is>
+          <t>Subterranea - Kentucky</t>
+        </is>
+      </c>
       <c r="BH49" t="inlineStr"/>
       <c r="BI49" t="inlineStr"/>
       <c r="BJ49" t="inlineStr"/>
@@ -16486,13 +17509,30 @@
       </c>
       <c r="BC50" t="inlineStr">
         <is>
-          <t>10 Years Later (MAPS)</t>
-        </is>
-      </c>
-      <c r="BD50" t="inlineStr"/>
-      <c r="BE50" t="inlineStr"/>
-      <c r="BF50" t="inlineStr"/>
-      <c r="BG50" t="inlineStr"/>
+          <t>10 Years Later (MAPS)
+Subterranea - Kentucky</t>
+        </is>
+      </c>
+      <c r="BD50" t="inlineStr">
+        <is>
+          <t>Subterranea - Kentucky</t>
+        </is>
+      </c>
+      <c r="BE50" t="inlineStr">
+        <is>
+          <t>Subterranea - Kentucky</t>
+        </is>
+      </c>
+      <c r="BF50" t="inlineStr">
+        <is>
+          <t>Subterranea - Kentucky</t>
+        </is>
+      </c>
+      <c r="BG50" t="inlineStr">
+        <is>
+          <t>Subterranea - Kentucky</t>
+        </is>
+      </c>
       <c r="BH50" t="inlineStr"/>
       <c r="BI50" t="inlineStr"/>
       <c r="BJ50" t="inlineStr"/>
